--- a/xlsx/美国历史_intext.xlsx
+++ b/xlsx/美国历史_intext.xlsx
@@ -15,2481 +15,2442 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="812">
   <si>
     <t>美国历史</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国历史</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Prehistory_of_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Prehistory of the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E4%BC%A6%E5%B8%83%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Colonial_history_of_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Colonial history of the United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1776%E2%80%9389)</t>
+  </si>
+  <si>
+    <t>en-History of the United States (1776–89)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1789%E2%80%931849)</t>
+  </si>
+  <si>
+    <t>en-History of the United States (1789–1849)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1849%E2%80%9365)</t>
+  </si>
+  <si>
+    <t>en-History of the United States (1849–65)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2_(1865%E5%B9%B4%EF%BC%8D1918%E5%B9%B4)</t>
+  </si>
+  <si>
+    <t>美国历史 (1865年－1918年)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1918%E2%80%9345)</t>
+  </si>
+  <si>
+    <t>en-History of the United States (1918–45)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1945%E2%80%9364)</t>
+  </si>
+  <si>
+    <t>en-History of the United States (1945–64)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1964%E2%80%9380)</t>
+  </si>
+  <si>
+    <t>en-History of the United States (1964–80)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1980%E2%80%9391)</t>
+  </si>
+  <si>
+    <t>en-History of the United States (1980–91)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2_(1991%E5%B9%B4%E8%87%B3%E4%BB%8A)</t>
+  </si>
+  <si>
+    <t>美国历史 (1991年至今)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_Asian_Americans</t>
+  </si>
+  <si>
+    <t>en-History of Asian Americans</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_Chinese_Americans</t>
+  </si>
+  <si>
+    <t>en-History of Chinese Americans</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_Filipino_Americans</t>
+  </si>
+  <si>
+    <t>en-History of Filipino Americans</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_Japanese_Americans</t>
+  </si>
+  <si>
+    <t>en-History of Japanese Americans</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_Mexican_Americans</t>
+  </si>
+  <si>
+    <t>en-History of Mexican Americans</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/African-American_Civil_Rights_Movement_(1896%E2%80%931954)</t>
+  </si>
+  <si>
+    <t>en-African-American Civil Rights Movement (1896–1954)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>南北战争</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cultural_history_of_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Cultural history of the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国人口史</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_U.S._foreign_policy</t>
+  </si>
+  <si>
+    <t>en-History of U.S. foreign policy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国经济史</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Historiography_of_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Historiography of the United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_medicine_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-History of medicine in the United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Military_history_of_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Military history of the United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_the_Southern_United_States</t>
+  </si>
+  <si>
+    <t>en-History of the Southern United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西部</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Technological_and_industrial_history_of_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Technological and industrial history of the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_women_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-History of women in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>英国殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E5%A4%A7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>超级大国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
+  </si>
+  <si>
+    <t>美洲原住民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>西伯利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>白令海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%AE%96%E6%B0%91</t>
+  </si>
+  <si>
+    <t>美洲殖民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%95%99%E5%BE%92</t>
+  </si>
+  <si>
+    <t>清教徒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E8%99%9F</t>
+  </si>
+  <si>
+    <t>五月花号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E8%99%9F%E5%85%AC%E7%B4%84</t>
+  </si>
+  <si>
+    <t>五月花号公约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E8%8C%85%E6%96%AF_(%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>普利茅斯 (麻萨诸塞州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
+  </si>
+  <si>
+    <t>奴隶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%A5%B4%E8%B4%B8%E6%98%93</t>
+  </si>
+  <si>
+    <t>黑奴贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%AF%8C</t>
+  </si>
+  <si>
+    <t>财富</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E6%9D%83</t>
+  </si>
+  <si>
+    <t>自治权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
+  </si>
+  <si>
+    <t>社会契约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%85%AB%E4%B8%96%E7%B4%80</t>
+  </si>
+  <si>
+    <t>十八世纪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%B8%89%E4%B8%96</t>
+  </si>
+  <si>
+    <t>乔治三世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>英国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%B9%B4%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>七年战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E6%83%A8%E6%A1%88</t>
+  </si>
+  <si>
+    <t>波士顿惨案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E5%AE%B9%E5%BF%8D%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>不可容忍法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>美国独立战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B2%BB%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>佐治亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>弗吉尼亚公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%90%A8%E7%9A%AE%E5%85%8B%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>切萨皮克湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E6%95%A6</t>
+  </si>
+  <si>
+    <t>詹姆斯敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E5%8F%B7%E5%85%AC%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>哈佛大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%B3%95%E5%8C%97%E7%BE%8E%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>英法北美战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%B9%B4%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%92%8C%E7%BA%A6_(1763%E5%B9%B4)</t>
+  </si>
+  <si>
+    <t>巴黎和约 (1763年)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
+  </si>
+  <si>
+    <t>乔治华盛顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97</t>
+  </si>
+  <si>
+    <t>富兰克林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%97%9C</t>
+  </si>
+  <si>
+    <t>海关</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%BB%A3%E8%A1%A8%EF%BC%8C%E4%B8%8D%E7%BA%B3%E7%A8%8E</t>
+  </si>
+  <si>
+    <t>无代表，不纳税</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Townshend_Acts</t>
+  </si>
+  <si>
+    <t>en-Townshend Acts</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%9D%B1%E5%8D%B0%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>英国东印度公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E5%80%BE%E8%8C%B6%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>波士顿倾茶事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>费城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86%E4%BC%9A%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>大陆会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%85%8B%E6%98%9F%E6%95%A6%E5%92%8C%E5%BA%B7%E7%A7%91%E5%BE%B7%E6%88%98%E5%BD%B9</t>
+  </si>
+  <si>
+    <t>列克星敦和康科德战役</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E8%BB%8D%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>大陆军队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AD%98_(%E5%B0%8F%E5%86%8A%E5%AD%90)</t>
+  </si>
+  <si>
+    <t>常识 (小册子)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E9%A6%AC%E6%96%AF%C2%B7%E5%9F%B9%E6%81%A9</t>
+  </si>
+  <si>
+    <t>汤马斯·培恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>独立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B</t>
+  </si>
+  <si>
+    <t>大不列颠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%9C%83%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>启蒙运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E5%A4%A7%E5%B1%A0%E6%9D%80</t>
+  </si>
+  <si>
+    <t>波士顿大屠杀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%82%BE%E8%8C%B6%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
+  </si>
+  <si>
+    <t>波士顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>乔治·华盛顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美利坚合众国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%8B%B1%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84</t>
+  </si>
+  <si>
+    <t>美英巴黎条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>美利坚合众国制宪会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E7%BB%9F%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>殖民统治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大英帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E6%9D%A1%E4%BE%8B</t>
+  </si>
+  <si>
+    <t>邦联条例</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A6%E8%BF%AA%E9%80%8A</t>
+  </si>
+  <si>
+    <t>詹姆斯·麦迪逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%BA%B3%E6%B3%A2%E5%88%A9%E6%96%AF%E4%BC%9A%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>安纳波利斯会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
+  </si>
+  <si>
+    <t>政教分离</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E8%B3%BC%E8%B2%B7%E6%A1%88</t>
+  </si>
+  <si>
+    <t>路易斯安那购买案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99</t>
+  </si>
+  <si>
+    <t>拿破崙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>强权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9</t>
+  </si>
+  <si>
+    <t>食物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>加勒比海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D</t>
+  </si>
+  <si>
+    <t>海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E6%B3%95%E5%B0%94%E5%8A%A0%E6%88%B0%E5%BD%B9</t>
+  </si>
+  <si>
+    <t>特拉法尔加战役</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>1812年战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E6%98%AD%E5%A4%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>昭昭天命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>美墨战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3</t>
+  </si>
+  <si>
+    <t>亚利桑那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>科罗拉多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF</t>
+  </si>
+  <si>
+    <t>林肯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1860%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>1860年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%C2%B7%E6%88%B4%E7%B6%AD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>杰佛逊·戴维斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E8%81%94%E7%9B%9F%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美利坚联盟国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%9D%8E</t>
+  </si>
+  <si>
+    <t>罗伯特·李</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%BB%BA%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
+  </si>
+  <si>
+    <t>国民生产总值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
+  </si>
+  <si>
+    <t>移民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>农场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>铁路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%97%8F</t>
+  </si>
+  <si>
+    <t>苏族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>电报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%A1%9E%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>贝塞麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>美西战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%93%A0%E5%85%8C</t>
+  </si>
+  <si>
+    <t>挤兑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>第一次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E8%B2%B8</t>
+  </si>
+  <si>
+    <t>信贷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>股票市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
+  </si>
+  <si>
+    <t>经济大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AB%BE%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F</t>
+  </si>
+  <si>
+    <t>富兰克林·德拉诺·罗斯福</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%A2%85%E7%BA%B3%E5%BE%B7%C2%B7%E5%87%AF%E6%81%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·梅纳德·凯恩斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
+  </si>
+  <si>
+    <t>罗斯福新政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>市场经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>第二次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>珍珠港事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>珍珠港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B_(%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
+  </si>
+  <si>
+    <t>同盟国 (第二次世界大战)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%B8%E5%BF%83%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>轴心国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8</t>
+  </si>
+  <si>
+    <t>核武器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
+  </si>
+  <si>
+    <t>苏联</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>自由民主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>共产主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>计划经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E7%90%86%E4%BA%BA%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>代理人战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>东德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>西德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%B0%8E%E5%BD%88%E5%8D%B1%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>古巴导弹危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8A%A0%E6%9E%97</t>
+  </si>
+  <si>
+    <t>加加林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>太空竞赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国太空总署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>第一次石油危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>第二次石油危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA</t>
+  </si>
+  <si>
+    <t>太空</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
+  </si>
+  <si>
+    <t>越战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
+  </si>
+  <si>
+    <t>理查德·尼克松</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
+  </si>
+  <si>
+    <t>中东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E8%BC%B8%E5%87%BA%E5%9C%8B%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>石油输出国组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%B2%B9</t>
+  </si>
+  <si>
+    <t>原油</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>伊斯兰革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E4%BC%8A%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>两伊战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>罗纳德·里根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%96%B9%E9%9B%86%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>东方集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7H%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>乔治·H·W·布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83</t>
+  </si>
+  <si>
+    <t>世界贸易中心</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
+  </si>
+  <si>
+    <t>苏联解体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1991%E5%B9%B4%E6%B5%B7%E6%B9%BE%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>1991年海湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>比尔·克林顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%96%AF%E9%81%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>纳斯达克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>2000年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>九一一事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9C%B0%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>基地组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%90%A8%E9%A9%AC%C2%B7%E6%9C%AC%C2%B7%E6%8B%89%E7%99%BB</t>
+  </si>
+  <si>
+    <t>奥萨马·本·拉登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>纽约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E6%A5%BC</t>
+  </si>
+  <si>
+    <t>五角大楼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>乔治·W·布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
+  </si>
+  <si>
+    <t>阿富汗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%88%A9%E7%8F%AD</t>
+  </si>
+  <si>
+    <t>塔利班</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%BE%BE%E5%A7%86%C2%B7%E4%BE%AF%E8%B5%9B%E5%9B%A0</t>
+  </si>
+  <si>
+    <t>萨达姆·侯赛因</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E9%87%8C%E5%A8%9C%E9%A3%93%E9%A3%8E</t>
+  </si>
+  <si>
+    <t>卡特里娜飓风</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A5%E5%B0%94%E8%89%AF_(%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>新奥尔良 (路易斯安那州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%B4%B7%E9%A3%8E%E6%9A%B4</t>
+  </si>
+  <si>
+    <t>次贷风暴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E7%8E%AF%E7%90%83%E8%82%A1%E7%81%BE</t>
+  </si>
+  <si>
+    <t>2008年环球股灾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A5%E5%B7%B4%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴拉克·奥巴马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
+  </si>
+  <si>
+    <t>唐纳·川普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>亚裔美国人军事史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>Template talk-美国索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>美国LGBT权益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>美国同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国家庭结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>哈莱姆文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>超验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>垮掉的一代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>美国建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国流行音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>美国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国平权行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国例外主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
+  </si>
+  <si>
+    <t>反美情绪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国死刑制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国枪支政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国枪枝暴力问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>美国医疗改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
+  </si>
+  <si>
+    <t>美国人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>美墨边界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国的肥胖问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国种族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国会员国列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>阿根廷历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>安地卡及巴布达历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>巴巴多斯历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>巴哈马历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>巴拉圭历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>巴拿马历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>巴西历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>秘鲁历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>玻利维亚历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>伯利兹历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>多米尼加共和国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>多米尼克历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>厄瓜多尔历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>哥伦比亚历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>哥斯达黎加历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>格林纳达历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>圭亚那历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>海地历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>洪都拉斯历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>加拿大历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>墨西哥历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>尼加拉瓜历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>萨尔瓦多历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9F%BA%E8%8C%A8%E5%92%8C%E5%B0%BC%E7%BB%B4%E6%96%AF%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>圣基茨和尼维斯历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>圣卢西亚历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>圣文森特和格林纳丁斯历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>苏里南历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>特立尼达和多巴哥历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>危地马拉历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>委内瑞拉历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>乌拉圭历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>牙买加历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>智利历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>安圭拉历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>波多黎各历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>格陵兰历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>开曼群岛历史</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国历史</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Prehistory_of_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Prehistory of the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E4%BC%A6%E5%B8%83%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥伦布时期</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Colonial_history_of_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Colonial history of the United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1776%E2%80%9389)</t>
-  </si>
-  <si>
-    <t>en-History of the United States (1776–89)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1789%E2%80%931849)</t>
-  </si>
-  <si>
-    <t>en-History of the United States (1789–1849)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1849%E2%80%9365)</t>
-  </si>
-  <si>
-    <t>en-History of the United States (1849–65)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2_(1865%E5%B9%B4%EF%BC%8D1918%E5%B9%B4)</t>
-  </si>
-  <si>
-    <t>美国历史 (1865年－1918年)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1918%E2%80%9345)</t>
-  </si>
-  <si>
-    <t>en-History of the United States (1918–45)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1945%E2%80%9364)</t>
-  </si>
-  <si>
-    <t>en-History of the United States (1945–64)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1964%E2%80%9380)</t>
-  </si>
-  <si>
-    <t>en-History of the United States (1964–80)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_the_United_States_(1980%E2%80%9391)</t>
-  </si>
-  <si>
-    <t>en-History of the United States (1980–91)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2_(1991%E5%B9%B4%E8%87%B3%E4%BB%8A)</t>
-  </si>
-  <si>
-    <t>美国历史 (1991年至今)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_Asian_Americans</t>
-  </si>
-  <si>
-    <t>en-History of Asian Americans</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_Chinese_Americans</t>
-  </si>
-  <si>
-    <t>en-History of Chinese Americans</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_Filipino_Americans</t>
-  </si>
-  <si>
-    <t>en-History of Filipino Americans</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_Japanese_Americans</t>
-  </si>
-  <si>
-    <t>en-History of Japanese Americans</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_Mexican_Americans</t>
-  </si>
-  <si>
-    <t>en-History of Mexican Americans</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/African-American_Civil_Rights_Movement_(1896%E2%80%931954)</t>
-  </si>
-  <si>
-    <t>en-African-American Civil Rights Movement (1896–1954)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>南北战争</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cultural_history_of_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Cultural history of the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国人口史</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_U.S._foreign_policy</t>
-  </si>
-  <si>
-    <t>en-History of U.S. foreign policy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国经济史</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Historiography_of_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Historiography of the United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_medicine_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-History of medicine in the United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Military_history_of_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Military history of the United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_the_Southern_United_States</t>
-  </si>
-  <si>
-    <t>en-History of the Southern United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国西部</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Technological_and_industrial_history_of_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Technological and industrial history of the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_women_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-History of women in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>英國殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E5%A4%A7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>超級大國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
-  </si>
-  <si>
-    <t>美洲原住民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>西伯利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>白令海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%AE%96%E6%B0%91</t>
-  </si>
-  <si>
-    <t>美洲殖民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%95%99%E5%BE%92</t>
-  </si>
-  <si>
-    <t>清教徒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E8%99%9F</t>
-  </si>
-  <si>
-    <t>五月花號</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E8%99%9F%E5%85%AC%E7%B4%84</t>
-  </si>
-  <si>
-    <t>五月花號公約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E8%8C%85%E6%96%AF_(%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>普利茅斯 (麻薩諸塞州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
-  </si>
-  <si>
-    <t>奴隸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%A5%B4%E8%B4%B8%E6%98%93</t>
-  </si>
-  <si>
-    <t>黑奴贸易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%AF%8C</t>
-  </si>
-  <si>
-    <t>財富</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E6%9D%83</t>
-  </si>
-  <si>
-    <t>自治权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
-  </si>
-  <si>
-    <t>社會契約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%85%AB%E4%B8%96%E7%B4%80</t>
-  </si>
-  <si>
-    <t>十八世紀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%B8%89%E4%B8%96</t>
-  </si>
-  <si>
-    <t>喬治三世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>英國國會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%B9%B4%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>七年戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E6%83%A8%E6%A1%88</t>
-  </si>
-  <si>
-    <t>波士顿惨案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E5%AE%B9%E5%BF%8D%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>不可容忍法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>美國獨立戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B2%BB%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>佐治亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>弗吉尼亞公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%90%A8%E7%9A%AE%E5%85%8B%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>切萨皮克湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E6%95%A6</t>
-  </si>
-  <si>
-    <t>詹姆斯敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>五月花号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E5%8F%B7%E5%85%AC%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>五月花号公约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>哈佛大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%B3%95%E5%8C%97%E7%BE%8E%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>英法北美战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%B9%B4%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>七年战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%92%8C%E7%BA%A6_(1763%E5%B9%B4)</t>
-  </si>
-  <si>
-    <t>巴黎和约 (1763年)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
-  </si>
-  <si>
-    <t>喬治華盛頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97</t>
-  </si>
-  <si>
-    <t>富蘭克林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%97%9C</t>
-  </si>
-  <si>
-    <t>海關</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%BB%A3%E8%A1%A8%EF%BC%8C%E4%B8%8D%E7%BA%B3%E7%A8%8E</t>
-  </si>
-  <si>
-    <t>无代表，不纳税</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Townshend_Acts</t>
-  </si>
-  <si>
-    <t>en-Townshend Acts</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%9D%B1%E5%8D%B0%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>英國東印度公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E5%80%BE%E8%8C%B6%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>波士顿倾茶事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>费城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86%E4%BC%9A%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>大陆会议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%85%8B%E6%98%9F%E6%95%A6%E5%92%8C%E5%BA%B7%E7%A7%91%E5%BE%B7%E6%88%98%E5%BD%B9</t>
-  </si>
-  <si>
-    <t>列克星敦和康科德战役</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>費城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E8%BB%8D%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>大陸軍隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AD%98_(%E5%B0%8F%E5%86%8A%E5%AD%90)</t>
-  </si>
-  <si>
-    <t>常識 (小冊子)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E9%A6%AC%E6%96%AF%C2%B7%E5%9F%B9%E6%81%A9</t>
-  </si>
-  <si>
-    <t>湯馬斯·培恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>獨立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B</t>
-  </si>
-  <si>
-    <t>大不列顛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>法國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%9C%83%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>大陸會議</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>啟蒙運動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E5%A4%A7%E5%B1%A0%E6%9D%80</t>
-  </si>
-  <si>
-    <t>波士顿大屠杀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%82%BE%E8%8C%B6%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>波士頓傾茶事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
-  </si>
-  <si>
-    <t>波士頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>乔治·华盛顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美利堅合眾國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%8B%B1%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84</t>
-  </si>
-  <si>
-    <t>美英巴黎條約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>美利坚合众国制宪会议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E7%BB%9F%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>殖民统治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大英帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E6%9D%A1%E4%BE%8B</t>
-  </si>
-  <si>
-    <t>邦联条例</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>美国独立战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A6%E8%BF%AA%E9%80%8A</t>
-  </si>
-  <si>
-    <t>詹姆斯·麦迪逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%BA%B3%E6%B3%A2%E5%88%A9%E6%96%AF%E4%BC%9A%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>安纳波利斯会议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
-  </si>
-  <si>
-    <t>政教分離</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E8%B3%BC%E8%B2%B7%E6%A1%88</t>
-  </si>
-  <si>
-    <t>路易斯安那購買案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99</t>
-  </si>
-  <si>
-    <t>拿破崙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>強權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9</t>
-  </si>
-  <si>
-    <t>食物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>加勒比海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D</t>
-  </si>
-  <si>
-    <t>海軍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E6%B3%95%E5%B0%94%E5%8A%A0%E6%88%B0%E5%BD%B9</t>
-  </si>
-  <si>
-    <t>特拉法尔加戰役</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>1812年戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E6%98%AD%E5%A4%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>昭昭天命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>美墨戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3</t>
-  </si>
-  <si>
-    <t>亞利桑那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>科羅拉多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF</t>
-  </si>
-  <si>
-    <t>林肯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>南北戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1860%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>1860年美国总统选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%C2%B7%E6%88%B4%E7%B6%AD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>傑佛遜·戴維斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E8%81%94%E7%9B%9F%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美利坚联盟国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%9D%8E</t>
-  </si>
-  <si>
-    <t>羅伯特·李</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%BB%BA%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>重建時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
-  </si>
-  <si>
-    <t>國民生產總值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
-  </si>
-  <si>
-    <t>移民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>農場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田納西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>鐵路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%97%8F</t>
-  </si>
-  <si>
-    <t>蘇族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>電報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%A1%9E%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>贝塞麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>美西戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
-  </si>
-  <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%93%A0%E5%85%8C</t>
-  </si>
-  <si>
-    <t>擠兌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>第一次世界大戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E8%B2%B8</t>
-  </si>
-  <si>
-    <t>信貸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>股票市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
-  </si>
-  <si>
-    <t>經濟大蕭條</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AB%BE%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F</t>
-  </si>
-  <si>
-    <t>富蘭克林·德拉諾·羅斯福</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%A2%85%E7%BA%B3%E5%BE%B7%C2%B7%E5%87%AF%E6%81%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>约翰·梅纳德·凯恩斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
-  </si>
-  <si>
-    <t>罗斯福新政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>市場經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>第二次世界大戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>珍珠港事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>珍珠港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B_(%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
-  </si>
-  <si>
-    <t>同盟國 (第二次世界大戰)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%B8%E5%BF%83%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>軸心國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8</t>
-  </si>
-  <si>
-    <t>核武器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
-  </si>
-  <si>
-    <t>蘇聯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>冷戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>資本主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>自由民主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>共產主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>計劃經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E7%90%86%E4%BA%BA%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>代理人戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>東德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>西德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>朝鮮戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%B0%8E%E5%BD%88%E5%8D%B1%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>古巴導彈危機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8A%A0%E6%9E%97</t>
-  </si>
-  <si>
-    <t>加加林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>太空競賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>數學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國太空總署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>第一次石油危機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>第二次石油危機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>太空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
-  </si>
-  <si>
-    <t>越戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
-  </si>
-  <si>
-    <t>理查德·尼克松</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
-  </si>
-  <si>
-    <t>中東</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E8%BC%B8%E5%87%BA%E5%9C%8B%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>石油輸出國組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%B2%B9</t>
-  </si>
-  <si>
-    <t>原油</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>伊斯兰革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E4%BC%8A%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>两伊战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>罗纳德·里根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%96%B9%E9%9B%86%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>东方集团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7H%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>乔治·H·W·布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83</t>
-  </si>
-  <si>
-    <t>世界贸易中心</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
-  </si>
-  <si>
-    <t>苏联解体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1991%E5%B9%B4%E6%B5%B7%E6%B9%BE%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>1991年海湾战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>比尔·克林顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
-  </si>
-  <si>
-    <t>互联网</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%96%AF%E9%81%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>納斯達克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>2000年美国总统选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>九一一事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9C%B0%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>基地组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%90%A8%E9%A9%AC%C2%B7%E6%9C%AC%C2%B7%E6%8B%89%E7%99%BB</t>
-  </si>
-  <si>
-    <t>奥萨马·本·拉登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>纽约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E6%A5%BC</t>
-  </si>
-  <si>
-    <t>五角大楼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>乔治·W·布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
-  </si>
-  <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%88%A9%E7%8F%AD</t>
-  </si>
-  <si>
-    <t>塔利班</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%BE%BE%E5%A7%86%C2%B7%E4%BE%AF%E8%B5%9B%E5%9B%A0</t>
-  </si>
-  <si>
-    <t>萨达姆·侯赛因</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E9%87%8C%E5%A8%9C%E9%A3%93%E9%A3%8E</t>
-  </si>
-  <si>
-    <t>卡特里娜飓风</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A5%E5%B0%94%E8%89%AF_(%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>新奥尔良 (路易斯安那州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%B4%B7%E9%A3%8E%E6%9A%B4</t>
-  </si>
-  <si>
-    <t>次贷风暴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E7%8E%AF%E7%90%83%E8%82%A1%E7%81%BE</t>
-  </si>
-  <si>
-    <t>2008年环球股灾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A5%E5%B7%B4%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴拉克·奥巴马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
-  </si>
-  <si>
-    <t>唐納·川普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>亚裔美国人军事史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>Template talk-美国索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美国宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>美国梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>美國LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>美国同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国家庭结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>哈莱姆文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>超验主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>垮掉的一代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>美国建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國飲食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>美国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国民间音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国流行音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>美国电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国平权行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国例外主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
-  </si>
-  <si>
-    <t>反美情绪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国死刑制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國槍支政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國槍枝暴力問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>美國醫療改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
-  </si>
-  <si>
-    <t>美国人权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>美墨邊界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国的肥胖问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国种族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國會員國列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>阿根廷历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>安地卡及巴布達歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>巴巴多斯历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>巴哈马历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>巴拉圭历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>巴拿马历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>巴西歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>秘鲁历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>玻利维亚历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>伯利兹历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>多米尼加共和国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>多米尼克历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>厄瓜多尔历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>哥伦比亚历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>哥斯达黎加历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>格林纳达历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>圭亚那历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>海地历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>洪都拉斯历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>加拿大歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>墨西哥历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>尼加拉瓜历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>萨尔瓦多历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9F%BA%E8%8C%A8%E5%92%8C%E5%B0%BC%E7%BB%B4%E6%96%AF%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>圣卢西亚历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>苏里南历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>危地马拉历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>委内瑞拉历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>乌拉圭历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>牙买加历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>智利歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>属地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>安圭拉歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>波多黎各历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>格陵兰历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>开曼群岛历史</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2838,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I422"/>
+  <dimension ref="A1:I424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3933,7 +3894,7 @@
         <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3959,10 +3920,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
@@ -3988,10 +3949,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>5</v>
@@ -4017,10 +3978,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4046,10 +4007,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4075,10 +4036,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
@@ -4104,10 +4065,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -4133,10 +4094,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>9</v>
@@ -4162,10 +4123,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -4191,10 +4152,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -4220,10 +4181,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -4249,10 +4210,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -4278,10 +4239,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>31</v>
@@ -4307,10 +4268,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>26</v>
@@ -4336,10 +4297,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>5</v>
@@ -4365,10 +4326,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4394,10 +4355,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>9</v>
@@ -4423,10 +4384,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -4452,10 +4413,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4481,10 +4442,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>9</v>
@@ -4510,10 +4471,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4539,10 +4500,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4568,10 +4529,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>24</v>
@@ -4597,10 +4558,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -4626,10 +4587,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4655,10 +4616,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -4684,10 +4645,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4713,10 +4674,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4742,10 +4703,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4771,10 +4732,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -4800,10 +4761,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -4829,10 +4790,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4858,10 +4819,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4887,10 +4848,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4916,10 +4877,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4945,10 +4906,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4974,10 +4935,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -5003,10 +4964,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -5032,10 +4993,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5061,10 +5022,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5090,10 +5051,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5119,10 +5080,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5148,10 +5109,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -5177,10 +5138,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -5206,10 +5167,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5235,10 +5196,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5264,10 +5225,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -5293,10 +5254,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5322,10 +5283,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>128</v>
+      </c>
+      <c r="F86" t="s">
         <v>129</v>
-      </c>
-      <c r="F86" t="s">
-        <v>130</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5351,10 +5312,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5380,10 +5341,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -5409,10 +5370,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5438,10 +5399,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5467,10 +5428,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5496,10 +5457,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5525,10 +5486,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5554,10 +5515,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5583,10 +5544,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>14</v>
@@ -5612,10 +5573,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5641,10 +5602,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>14</v>
@@ -5670,10 +5631,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>7</v>
@@ -5699,10 +5660,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5728,10 +5689,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -5757,10 +5718,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5786,10 +5747,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="G102" t="n">
         <v>30</v>
@@ -5815,10 +5776,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5844,10 +5805,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5873,10 +5834,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5902,10 +5863,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>7</v>
@@ -5931,10 +5892,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5960,10 +5921,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5989,10 +5950,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6018,10 +5979,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6047,10 +6008,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6076,10 +6037,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6105,10 +6066,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6134,10 +6095,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6163,10 +6124,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -6192,10 +6153,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -6221,10 +6182,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6250,10 +6211,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6279,10 +6240,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F119" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -6308,10 +6269,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G120" t="n">
         <v>4</v>
@@ -6337,10 +6298,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6366,10 +6327,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6395,10 +6356,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6424,10 +6385,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6453,10 +6414,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6482,10 +6443,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="G126" t="n">
         <v>5</v>
@@ -6511,10 +6472,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6540,10 +6501,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6569,10 +6530,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6598,10 +6559,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6627,10 +6588,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6656,10 +6617,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6685,10 +6646,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6714,10 +6675,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6743,10 +6704,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6772,10 +6733,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6801,10 +6762,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6830,10 +6791,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6859,10 +6820,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6888,10 +6849,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6917,10 +6878,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="G141" t="n">
         <v>4</v>
@@ -6946,10 +6907,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6975,10 +6936,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7004,10 +6965,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7033,10 +6994,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7062,10 +7023,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7091,10 +7052,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7120,10 +7081,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>10</v>
@@ -7149,10 +7110,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7178,10 +7139,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7207,10 +7168,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7236,10 +7197,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>5</v>
@@ -7265,10 +7226,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7294,10 +7255,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7323,10 +7284,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7352,10 +7313,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7381,10 +7342,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -7410,10 +7371,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7439,10 +7400,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7468,10 +7429,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7497,10 +7458,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7526,10 +7487,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7555,10 +7516,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7584,10 +7545,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7613,10 +7574,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7642,10 +7603,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>4</v>
@@ -7671,10 +7632,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7700,10 +7661,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7729,10 +7690,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -7758,10 +7719,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7787,10 +7748,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7816,10 +7777,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7845,10 +7806,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7874,10 +7835,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7903,13 +7864,13 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="G175" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7932,10 +7893,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>13</v>
@@ -7961,10 +7922,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>5</v>
@@ -7990,10 +7951,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8019,10 +7980,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8048,10 +8009,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8077,10 +8038,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8106,10 +8067,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8135,10 +8096,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8164,10 +8125,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -8193,10 +8154,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8222,10 +8183,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8251,10 +8212,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8280,10 +8241,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8309,10 +8270,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8338,10 +8299,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8367,10 +8328,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8396,10 +8357,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8425,10 +8386,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8454,10 +8415,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>10</v>
@@ -8483,10 +8444,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>4</v>
@@ -8512,10 +8473,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8541,10 +8502,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8570,10 +8531,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -8599,10 +8560,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8628,10 +8589,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8657,10 +8618,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>4</v>
@@ -8686,10 +8647,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8715,10 +8676,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8744,10 +8705,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>4</v>
@@ -8773,10 +8734,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -8802,10 +8763,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8831,10 +8792,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>12</v>
@@ -8860,10 +8821,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8889,10 +8850,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8918,10 +8879,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8947,10 +8908,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8976,10 +8937,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9005,10 +8966,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9034,10 +8995,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9063,10 +9024,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9092,10 +9053,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F216" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9121,10 +9082,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F217" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9150,10 +9111,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9179,10 +9140,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9208,10 +9169,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9237,10 +9198,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F221" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9266,10 +9227,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9295,10 +9256,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9324,10 +9285,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9353,10 +9314,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9382,10 +9343,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9411,10 +9372,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9440,10 +9401,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9469,10 +9430,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9498,10 +9459,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9527,10 +9488,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9556,10 +9517,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9585,10 +9546,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9614,10 +9575,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9643,10 +9604,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9672,10 +9633,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F236" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9730,10 +9691,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9759,10 +9720,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G239" t="n">
         <v>6</v>
@@ -9817,10 +9778,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9846,10 +9807,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F242" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9875,10 +9836,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9933,10 +9894,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9962,10 +9923,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9991,10 +9952,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G247" t="n">
         <v>5</v>
@@ -10020,10 +9981,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>338</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -10049,10 +10010,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>354</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10107,10 +10068,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10136,10 +10097,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10165,10 +10126,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10194,10 +10155,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10223,10 +10184,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10252,10 +10213,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F256" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G256" t="n">
         <v>7</v>
@@ -10281,10 +10242,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10310,10 +10271,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="F258" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="G258" t="n">
         <v>5</v>
@@ -10339,10 +10300,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="F259" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10368,10 +10329,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="F260" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10397,10 +10358,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F261" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10426,10 +10387,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F262" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10455,10 +10416,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F263" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10484,10 +10445,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F264" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10513,10 +10474,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="F265" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10542,10 +10503,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F266" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10571,10 +10532,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10600,10 +10561,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10629,10 +10590,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F269" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10658,10 +10619,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F270" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10687,10 +10648,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10716,10 +10677,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F272" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10745,10 +10706,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10774,10 +10735,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10803,10 +10764,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10832,10 +10793,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10861,10 +10822,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10890,10 +10851,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="F278" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10919,10 +10880,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F279" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10948,10 +10909,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F280" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10977,10 +10938,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F281" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -11006,10 +10967,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="F282" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11035,10 +10996,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="F283" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11064,10 +11025,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F284" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11093,10 +11054,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F285" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11122,10 +11083,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="F286" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11151,10 +11112,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F287" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11180,10 +11141,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F288" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11209,10 +11170,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F289" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11238,10 +11199,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F290" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11267,10 +11228,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F291" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -11296,10 +11257,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="F292" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11325,10 +11286,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F293" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11354,10 +11315,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F294" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G294" t="n">
         <v>4</v>
@@ -11383,10 +11344,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="F295" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11412,10 +11373,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F296" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11441,10 +11402,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="F297" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11470,10 +11431,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="F298" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11499,10 +11460,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F299" t="s">
-        <v>578</v>
+        <v>262</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11528,10 +11489,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="F300" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11557,10 +11518,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="F301" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11586,10 +11547,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="F302" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11615,10 +11576,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F303" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11644,10 +11605,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="F304" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11673,10 +11634,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="F305" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11702,10 +11663,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="F306" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="G306" t="n">
         <v>3</v>
@@ -11731,10 +11692,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="F307" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11760,10 +11721,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="F308" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11789,10 +11750,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="F309" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11818,10 +11779,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="F310" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11847,10 +11808,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="F311" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="G311" t="n">
         <v>4</v>
@@ -11876,10 +11837,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="F312" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11905,10 +11866,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="F313" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11934,10 +11895,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="F314" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11963,10 +11924,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="F315" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11992,10 +11953,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="F316" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12021,10 +11982,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="F317" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12050,10 +12011,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="F318" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12079,10 +12040,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="F319" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12108,10 +12069,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="F320" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12137,10 +12098,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="F321" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12166,10 +12127,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="F322" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="G322" t="n">
         <v>4</v>
@@ -12195,10 +12156,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="F323" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12224,10 +12185,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="F324" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12253,10 +12214,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="F325" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12282,10 +12243,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="F326" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12311,10 +12272,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="F327" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12340,10 +12301,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="F328" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12369,10 +12330,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="F329" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12398,10 +12359,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="F330" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12427,10 +12388,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="F331" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -12456,10 +12417,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="F332" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12485,10 +12446,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="F333" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12514,10 +12475,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="F334" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12543,10 +12504,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="F335" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12572,10 +12533,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="F336" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="G336" t="n">
         <v>5</v>
@@ -12601,10 +12562,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="F337" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12630,10 +12591,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="F338" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="G338" t="n">
         <v>4</v>
@@ -12659,10 +12620,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="F339" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12688,10 +12649,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="F340" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -12717,10 +12678,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="F341" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12746,10 +12707,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="F342" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12775,10 +12736,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="F343" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12804,10 +12765,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="F344" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12833,10 +12794,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="F345" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12862,10 +12823,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="F346" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="G346" t="n">
         <v>4</v>
@@ -12891,10 +12852,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="F347" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="G347" t="n">
         <v>9</v>
@@ -12920,10 +12881,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="F348" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12949,10 +12910,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="F349" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -12978,10 +12939,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="F350" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13007,10 +12968,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="F351" t="s">
-        <v>682</v>
+        <v>613</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13036,10 +12997,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="F352" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13065,10 +13026,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="F353" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13094,10 +13055,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="F354" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13123,10 +13084,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="F355" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13152,10 +13113,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="F356" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13181,10 +13142,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="F357" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13210,10 +13171,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="F358" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13239,10 +13200,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="F359" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13268,10 +13229,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="F360" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13297,10 +13258,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="F361" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13326,10 +13287,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="F362" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13355,10 +13316,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="F363" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="G363" t="n">
         <v>4</v>
@@ -13384,10 +13345,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="F364" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13413,10 +13374,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="F365" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13442,10 +13403,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="F366" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13471,10 +13432,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="F367" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13500,10 +13461,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="F368" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13529,10 +13490,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="F369" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13558,10 +13519,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="F370" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13587,10 +13548,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="F371" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -13616,10 +13577,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="F372" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13645,10 +13606,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="F373" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13674,10 +13635,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="F374" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13703,10 +13664,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="F375" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13732,10 +13693,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="F376" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13761,10 +13722,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="F377" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13790,10 +13751,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="F378" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13819,10 +13780,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F379" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -13848,10 +13809,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="F380" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13877,10 +13838,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="F381" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13906,10 +13867,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="F382" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13935,10 +13896,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="F383" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13964,10 +13925,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="F384" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13993,10 +13954,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="F385" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14022,10 +13983,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="F386" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14051,10 +14012,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="F387" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14080,10 +14041,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F388" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14109,10 +14070,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="F389" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14138,10 +14099,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="F390" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14167,10 +14128,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="F391" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14196,10 +14157,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="F392" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14225,10 +14186,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="F393" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14254,10 +14215,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="F394" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14283,10 +14244,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="F395" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14312,10 +14273,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="F396" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14341,10 +14302,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="F397" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14370,10 +14331,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="F398" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14399,10 +14360,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="F399" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14428,10 +14389,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="F400" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14457,10 +14418,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="F401" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="G401" t="n">
         <v>2</v>
@@ -14486,10 +14447,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="F402" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -14515,10 +14476,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="F403" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14544,10 +14505,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="F404" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14573,10 +14534,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="F405" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G405" t="n">
         <v>3</v>
@@ -14602,10 +14563,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="F406" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14631,10 +14592,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="F407" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14660,10 +14621,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="F408" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14689,10 +14650,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="F409" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14718,10 +14679,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="F410" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14747,10 +14708,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="F411" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14776,10 +14737,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="F412" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14805,10 +14766,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="F413" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14834,10 +14795,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="F414" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14863,10 +14824,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="F415" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14892,10 +14853,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="F416" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14921,10 +14882,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="F417" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14950,10 +14911,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="F418" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14979,10 +14940,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="F419" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15008,10 +14969,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="F420" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15037,10 +14998,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="F421" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15066,10 +15027,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F422" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15078,6 +15039,64 @@
         <v>4</v>
       </c>
       <c r="I422" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>0</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1</v>
+      </c>
+      <c r="D423" t="n">
+        <v>422</v>
+      </c>
+      <c r="E423" t="s">
+        <v>809</v>
+      </c>
+      <c r="F423" t="s">
+        <v>810</v>
+      </c>
+      <c r="G423" t="n">
+        <v>23</v>
+      </c>
+      <c r="H423" t="s">
+        <v>4</v>
+      </c>
+      <c r="I423" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>0</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1</v>
+      </c>
+      <c r="D424" t="n">
+        <v>423</v>
+      </c>
+      <c r="E424" t="s">
+        <v>809</v>
+      </c>
+      <c r="F424" t="s">
+        <v>811</v>
+      </c>
+      <c r="G424" t="n">
+        <v>1</v>
+      </c>
+      <c r="H424" t="s">
+        <v>4</v>
+      </c>
+      <c r="I424" t="n">
         <v>3</v>
       </c>
     </row>
